--- a/TEMPLETE/TEMPLATE.xlsx
+++ b/TEMPLETE/TEMPLATE.xlsx
@@ -6,7 +6,8 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="开源软件" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -24,19 +25,19 @@
     <t>软件描述</t>
   </si>
   <si>
-    <t xml:space="preserve">开源情况 &amp; 许可证</t>
-  </si>
-  <si>
     <t>官网</t>
-  </si>
-  <si>
-    <t>源码仓库</t>
   </si>
   <si>
     <t>支持平台</t>
   </si>
   <si>
     <t>能力声明</t>
+  </si>
+  <si>
+    <t>许可证</t>
+  </si>
+  <si>
+    <t>源码仓库</t>
   </si>
 </sst>
 </file>
@@ -606,7 +607,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
+    <col customWidth="1" min="2" max="2" style="1" width="32.00390625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="36.57421875"/>
+    <col customWidth="1" min="4" max="4" style="1" width="36.28125"/>
+    <col customWidth="1" min="5" max="5" style="1" width="36.8515625"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -630,19 +673,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TEMPLETE/TEMPLATE.xlsx
+++ b/TEMPLETE/TEMPLATE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="专有软件" sheetId="1" state="visible" r:id="rId1"/>
@@ -611,7 +611,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
     <col customWidth="1" min="2" max="2" style="1" width="32.00390625"/>
@@ -621,7 +621,7 @@
     <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
+    <row r="1" s="2" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="24.7109375"/>
     <col customWidth="1" min="2" max="2" style="1" width="32.00390625"/>
@@ -665,7 +665,7 @@
     <col min="8" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="42.75" customHeight="1">
+    <row r="1" s="2" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
